--- a/workspace/lottery/2017-2.xlsx
+++ b/workspace/lottery/2017-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>日期</t>
   </si>
@@ -33,12 +33,30 @@
     <t>盈亏</t>
   </si>
   <si>
+    <t>时间</t>
+  </si>
+  <si>
     <t>投入</t>
   </si>
   <si>
     <t>总盈亏</t>
   </si>
   <si>
+    <t>总场数</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>走</t>
+  </si>
+  <si>
+    <t>胜率%</t>
+  </si>
+  <si>
     <t>湖人+3-50</t>
   </si>
   <si>
@@ -70,6 +88,360 @@
   </si>
   <si>
     <t>mf独赢</t>
+  </si>
+  <si>
+    <t>富川KEB+2.5</t>
+  </si>
+  <si>
+    <t>仁川大象+6</t>
+  </si>
+  <si>
+    <t>青岛216.5大</t>
+  </si>
+  <si>
+    <t>加纳1.75大</t>
+  </si>
+  <si>
+    <t>火箭226大</t>
+  </si>
+  <si>
+    <t>马刺212.5大</t>
+  </si>
+  <si>
+    <t>奥林比亚高斯第一节+1</t>
+  </si>
+  <si>
+    <t>首尔SK骑士+2.5</t>
+  </si>
+  <si>
+    <t>FC奥斯+0</t>
+  </si>
+  <si>
+    <t>活塞211大</t>
+  </si>
+  <si>
+    <t>火箭223大</t>
+  </si>
+  <si>
+    <t>雷霆-1-50</t>
+  </si>
+  <si>
+    <t>帕斯托-0.25</t>
+  </si>
+  <si>
+    <t>JAG+1.5</t>
+  </si>
+  <si>
+    <t>北海道风神148.5小</t>
+  </si>
+  <si>
+    <t>泗水-3.5</t>
+  </si>
+  <si>
+    <t>瓦伦西亚2.75大</t>
+  </si>
+  <si>
+    <t>热火-9+50</t>
+  </si>
+  <si>
+    <t>奇才218.5大</t>
+  </si>
+  <si>
+    <t>沃尔夫斯堡+0.5</t>
+  </si>
+  <si>
+    <t>马刺221.5小</t>
+  </si>
+  <si>
+    <t>托拉卡+0.75</t>
+  </si>
+  <si>
+    <t>ROX+1.5</t>
+  </si>
+  <si>
+    <t>勇士全场单</t>
+  </si>
+  <si>
+    <t>首尔SK骑士153.5大</t>
+  </si>
+  <si>
+    <t>巴塞159.5小</t>
+  </si>
+  <si>
+    <t>江苏钢铁+8.5</t>
+  </si>
+  <si>
+    <t>四川第一节-1</t>
+  </si>
+  <si>
+    <t>山东第一节+0</t>
+  </si>
+  <si>
+    <t>广州第一节+2.5</t>
+  </si>
+  <si>
+    <t>天津第一节+1.5</t>
+  </si>
+  <si>
+    <t>恩波利+0.25</t>
+  </si>
+  <si>
+    <t>凯子222小</t>
+  </si>
+  <si>
+    <t>CLG独赢</t>
+  </si>
+  <si>
+    <t>瑞加塔斯175.5大</t>
+  </si>
+  <si>
+    <t>美足猎鹰-7.5</t>
+  </si>
+  <si>
+    <t>老虎175.5小</t>
+  </si>
+  <si>
+    <t>新韩大鸟+6.5</t>
+  </si>
+  <si>
+    <t>斯图加特2.75大</t>
+  </si>
+  <si>
+    <t>活塞-9.5</t>
+  </si>
+  <si>
+    <t>奇才+1+50</t>
+  </si>
+  <si>
+    <t>dan+1.5</t>
+  </si>
+  <si>
+    <t>格雷特霍夫+1</t>
+  </si>
+  <si>
+    <t>黄蜂-10-50</t>
+  </si>
+  <si>
+    <t>魔术+11+50</t>
+  </si>
+  <si>
+    <t>小牛+2-50</t>
+  </si>
+  <si>
+    <t>恰帕斯FC+0.25</t>
+  </si>
+  <si>
+    <t>国民队-0.25</t>
+  </si>
+  <si>
+    <t>SNG-1.5</t>
+  </si>
+  <si>
+    <t>同曦+1.5</t>
+  </si>
+  <si>
+    <t>山西第一节-0</t>
+  </si>
+  <si>
+    <t>四川第一节+2.5</t>
+  </si>
+  <si>
+    <t>北京鸭第一节+3.5</t>
+  </si>
+  <si>
+    <t>广州第一节+6</t>
+  </si>
+  <si>
+    <t>山西+3.5</t>
+  </si>
+  <si>
+    <t>山西上半场+2</t>
+  </si>
+  <si>
+    <t>福建第一节-1</t>
+  </si>
+  <si>
+    <t>罗塔-0</t>
+  </si>
+  <si>
+    <t>拉普阿165小</t>
+  </si>
+  <si>
+    <t>图卢兹+0.25</t>
+  </si>
+  <si>
+    <t>尼克斯+1+50</t>
+  </si>
+  <si>
+    <t>尼克斯219大</t>
+  </si>
+  <si>
+    <t>活塞216.5大</t>
+  </si>
+  <si>
+    <t>马刺206大</t>
+  </si>
+  <si>
+    <t>RYL独赢</t>
+  </si>
+  <si>
+    <t>凯子+1+50</t>
+  </si>
+  <si>
+    <t>76人+6+50</t>
+  </si>
+  <si>
+    <t>C9+1.5</t>
+  </si>
+  <si>
+    <t>卡比亚塔2.5大</t>
+  </si>
+  <si>
+    <t>gd+1.5</t>
+  </si>
+  <si>
+    <t>CLS骑士-18.5</t>
+  </si>
+  <si>
+    <t>阿德莱德-0.25</t>
+  </si>
+  <si>
+    <t>泗水+13.5</t>
+  </si>
+  <si>
+    <t>泗水141.5大</t>
+  </si>
+  <si>
+    <t>吉林+12</t>
+  </si>
+  <si>
+    <t>同曦+5</t>
+  </si>
+  <si>
+    <t>广州第一节+1.5</t>
+  </si>
+  <si>
+    <t>深圳第一节-4.5</t>
+  </si>
+  <si>
+    <t>山东-3</t>
+  </si>
+  <si>
+    <t>广东第一节+0.5</t>
+  </si>
+  <si>
+    <t>幸运薛达3.25大</t>
+  </si>
+  <si>
+    <t>spy独赢</t>
+  </si>
+  <si>
+    <t>湖人+5-50</t>
+  </si>
+  <si>
+    <t>尼克斯-3+50</t>
+  </si>
+  <si>
+    <t>rox+1.5</t>
+  </si>
+  <si>
+    <t>西布朗+0.25</t>
+  </si>
+  <si>
+    <t>水晶宫+0.5</t>
+  </si>
+  <si>
+    <t>埃弗顿-0.25</t>
+  </si>
+  <si>
+    <t>沃特福德+1.75</t>
+  </si>
+  <si>
+    <t>法兰克福+0.5</t>
+  </si>
+  <si>
+    <t>海德咸+0.25</t>
+  </si>
+  <si>
+    <t>卡斯鲁厄+0.25</t>
+  </si>
+  <si>
+    <t>墨尔本城-0</t>
+  </si>
+  <si>
+    <t>沙尔克04-0.75</t>
+  </si>
+  <si>
+    <t>雷霆+7-50</t>
+  </si>
+  <si>
+    <t>76人+4-50</t>
+  </si>
+  <si>
+    <t>fly独赢</t>
+  </si>
+  <si>
+    <t>万隆151.5小</t>
+  </si>
+  <si>
+    <t>浙江稠州+18.5</t>
+  </si>
+  <si>
+    <t>北京首钢-2</t>
+  </si>
+  <si>
+    <t>八一第一节+2.5</t>
+  </si>
+  <si>
+    <t>福建第一节+2.5</t>
+  </si>
+  <si>
+    <t>天津第一节+1</t>
+  </si>
+  <si>
+    <t>广州第一节-3.5</t>
+  </si>
+  <si>
+    <t>青岛+13.5</t>
+  </si>
+  <si>
+    <t>圣保利-0</t>
+  </si>
+  <si>
+    <t>切尔西-1.25</t>
+  </si>
+  <si>
+    <t>沃尔夫斯堡-0</t>
+  </si>
+  <si>
+    <t>TSM-1.5</t>
+  </si>
+  <si>
+    <t>国王-4</t>
+  </si>
+  <si>
+    <t>KB之星+3</t>
+  </si>
+  <si>
+    <t>Alliance独赢</t>
+  </si>
+  <si>
+    <t>鹈鹕+2</t>
+  </si>
+  <si>
+    <t>曼城-1.5</t>
+  </si>
+  <si>
+    <t>马里迪莫+0.25</t>
+  </si>
+  <si>
+    <t>波鸿+0.75</t>
+  </si>
+  <si>
+    <t>格兰纳达+1</t>
+  </si>
+  <si>
+    <t>im独赢</t>
   </si>
 </sst>
 </file>
@@ -78,9 +450,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -99,7 +471,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,29 +544,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,17 +562,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,31 +585,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,16 +606,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +629,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,25 +749,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,139 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,11 +823,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,17 +877,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,32 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -554,156 +925,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,19 +1424,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,19 +1453,37 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0.96</v>
@@ -1101,18 +1494,41 @@
       <c r="E2" s="1">
         <v>1.92</v>
       </c>
+      <c r="F2">
+        <v>201702</v>
+      </c>
       <c r="G2">
         <f>SUM(D:D)</f>
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
-        <v>9.56</v>
+        <v>47.01425</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF(B2:B10000,"&lt;&gt;")</f>
+        <v>130</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF(E2:E10000,"&gt;0")</f>
+        <v>84</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(E2:E10000,"&lt;0")</f>
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(E2:E10000,"=0")</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>J2/I2*100</f>
+        <v>64.6153846153846</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0.96</v>
@@ -1126,7 +1542,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1.02</v>
@@ -1140,7 +1556,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0.97</v>
@@ -1154,7 +1570,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1168,7 +1584,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1.01</v>
@@ -1185,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0.87</v>
@@ -1199,7 +1615,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0.96</v>
@@ -1213,7 +1629,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0.95</v>
@@ -1227,7 +1643,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>0.96</v>
@@ -1239,15 +1655,1741 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>0.83</v>
       </c>
       <c r="D12">
         <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>0.95</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0.98</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0.82</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>0.93</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f>0.93/2</f>
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0.95</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>0.95</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>0.96</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>0.92</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>1.17</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>0.95</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>0.95</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0.96</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>1.02</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>0.94</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>0.96</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>1.103</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>0.96</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>0.95</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>0.755</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>0.95</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>0.825</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>0.94</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>0.93</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>0.93</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>0.93</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>0.96</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>0.95</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>0.93</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>0.95</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>0.94</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>1.036</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <f>1.036/2</f>
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>0.95</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>0.83</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>0.87</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>0.87</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>0.99</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>0.89</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>1.09</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>0.96</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>0.96</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>1.07</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>0.77</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>0.96</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>0.96</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>0.96</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>1.05</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>0.87</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>1.28</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <v>0.96</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>0.93</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" ref="E63:E69" si="0">C63*D63</f>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>0.93</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65">
+        <v>0.95</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>0.95</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>0.97</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="0"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>0.95</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>0.95</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>0.93</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>0.93</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72">
+        <v>1.03</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <f>1.03/2</f>
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73">
+        <v>0.96</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <v>0.95</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75">
+        <v>0.95</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76">
+        <v>0.95</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>1.31</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>0.96</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>0.96</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <v>0.68</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81">
+        <v>1.15</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>0.72</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>0.92</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84">
+        <v>1.04</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85">
+        <v>0.92</v>
+      </c>
+      <c r="D85">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="1">
+        <f>0.92/2</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86">
+        <v>0.9</v>
+      </c>
+      <c r="D86">
+        <v>0.5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87">
+        <v>0.89</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88">
+        <v>0.89</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>0.83</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <f>0.83*2</f>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>0.84</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91">
+        <v>0.96</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92">
+        <v>0.95</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93">
+        <v>1.03</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>1.12</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>0.96</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96">
+        <v>0.96</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>1.05</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>0.985</v>
+      </c>
+      <c r="D98">
+        <v>0.5</v>
+      </c>
+      <c r="E98" s="1">
+        <f>0.985/4</f>
+        <v>0.24625</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>0.805</v>
+      </c>
+      <c r="D99">
+        <v>0.5</v>
+      </c>
+      <c r="E99">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100">
+        <v>0.855</v>
+      </c>
+      <c r="D100">
+        <v>0.5</v>
+      </c>
+      <c r="E100">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101">
+        <v>0.825</v>
+      </c>
+      <c r="D101">
+        <v>0.5</v>
+      </c>
+      <c r="E101">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102">
+        <v>0.985</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103">
+        <v>0.92</v>
+      </c>
+      <c r="D103">
+        <v>0.5</v>
+      </c>
+      <c r="E103" s="1">
+        <f>0.92/2</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104">
+        <v>0.845</v>
+      </c>
+      <c r="D104">
+        <v>0.5</v>
+      </c>
+      <c r="E104">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105">
+        <v>1.04</v>
+      </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106">
+        <v>1.046</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107">
+        <v>0.96</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108">
+        <v>0.96</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109">
+        <v>1.02</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110">
+        <v>0.95</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111">
+        <v>0.87</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <f>0.87*2</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112">
+        <v>0.92</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113">
+        <v>0.94</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <f>0.94*2</f>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114">
+        <v>0.88</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <f>0.88*2</f>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115">
+        <v>0.89</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1">
+        <f>0.89*2</f>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116">
+        <v>0.88</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117">
+        <v>0.93</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <f>0.93*2</f>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118">
+        <v>0.88</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <f>0.88*2</f>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119">
+        <v>1.14</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120">
+        <v>0.925</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1">
+        <f>0.925*2</f>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121">
+        <v>1.17</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122">
+        <v>0.96</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1">
+        <f>0.96*2</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123">
+        <v>0.95</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124">
+        <v>1.31</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125">
+        <v>0.96</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126">
+        <v>0.96</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127">
+        <v>1.156</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1.156</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128">
+        <v>1.08</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129">
+        <v>1.06</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130">
+        <v>1.066</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131">
+        <v>1.96</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
